--- a/biology/Botanique/Araucaria_nemorosa/Araucaria_nemorosa.xlsx
+++ b/biology/Botanique/Araucaria_nemorosa/Araucaria_nemorosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Araucaria nemorosa est une espèce d'arbres de la famille des Araucariaceae. C'est une des treize espèces endémiques du genre Araucaria de Nouvelle-Calédonie.
 Cette espèce est inféodée aux terrains ultramafiques.
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un arbre de 15 à 30 mètres. Ses branches sont regroupées par 5-7 en pseudo-verticilles. Les individus âgés présentent une cime arrondie[1].
-Cette espèce produit des individus de taille plus réduite que les pins colonnaires, qui sont du même genre Araucaria[2].
-Feuilles
-Les feuilles sont des écailles situées sur des ramilles[1].
-Fruits
-Les fruits sont des cônes plutôt piquants qui produisent des graines ailées[1],[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un arbre de 15 à 30 mètres. Ses branches sont regroupées par 5-7 en pseudo-verticilles. Les individus âgés présentent une cime arrondie.
+Cette espèce produit des individus de taille plus réduite que les pins colonnaires, qui sont du même genre Araucaria.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Araucaria_nemorosa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucaria_nemorosa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont des écailles situées sur des ramilles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Araucaria_nemorosa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucaria_nemorosa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des cônes plutôt piquants qui produisent des graines ailées,.
 </t>
         </is>
       </c>
